--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\Others\Requisition of Mugdho Corporation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Symphony\Others\Requisition of Mugdho Corporation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J184" sqref="J184"/>
+      <selection pane="bottomRight" activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44511</v>
+        <v>44514</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2992,17 +2992,19 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>302</v>
       </c>
       <c r="B19" s="28">
-        <v>1069.5899999999999</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>942.28</v>
+      </c>
+      <c r="C19" s="17">
+        <v>100</v>
+      </c>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>94228</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>252</v>
@@ -3868,17 +3870,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>100</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103045</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>252</v>
@@ -10355,17 +10359,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>267</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>40</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52244.095999999998</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>252</v>
@@ -12044,17 +12050,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>252</v>
@@ -19441,17 +19449,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A167" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>12</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>0</v>
+        <v>118481.40000000001</v>
       </c>
       <c r="E167" s="39" t="s">
         <v>290</v>
@@ -19965,19 +19975,17 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17">
-        <v>70</v>
-      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>698158.3</v>
+        <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>252</v>
@@ -20366,12 +20374,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>70</v>
+        <f>SUBTOTAL(9,C87:C173)</f>
+        <v>72</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>698158.3</v>
+        <f>SUBTOTAL(9,D19:D173)</f>
+        <v>392296.29600000003</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20644,7 +20652,7 @@
         <v>271</v>
       </c>
       <c r="C180" s="53">
-        <v>700000</v>
+        <v>250000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20655,7 +20663,9 @@
       <c r="B181" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C181" s="53"/>
+      <c r="C181" s="53">
+        <v>159552</v>
+      </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
@@ -20665,7 +20675,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>700000</v>
+        <v>409552</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E178" sqref="E178"/>
+      <selection pane="bottomRight" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44514</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2992,19 +2992,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>302</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
       </c>
-      <c r="C19" s="17">
-        <v>100</v>
-      </c>
+      <c r="C19" s="17"/>
       <c r="D19" s="18">
         <f t="shared" si="0"/>
-        <v>94228</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>252</v>
@@ -3870,19 +3868,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>287</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>100</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>103045</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>252</v>
@@ -4909,17 +4905,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>40</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47152</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>252</v>
@@ -5560,17 +5558,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>30</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42671.4</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>293</v>
@@ -10359,19 +10359,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>267</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>40</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52244.095999999998</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>252</v>
@@ -12050,19 +12048,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>252</v>
@@ -12116,17 +12112,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>60</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>71329.2</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>252</v>
@@ -18798,17 +18796,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>269</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>5</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36211</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>252</v>
@@ -19449,19 +19449,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17">
-        <v>12</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>118481.40000000001</v>
+        <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
         <v>290</v>
@@ -20106,17 +20104,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>5</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>291</v>
@@ -20374,12 +20374,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C87:C173)</f>
-        <v>72</v>
+        <f>SUBTOTAL(9,C37:C173)</f>
+        <v>140</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D19:D173)</f>
-        <v>392296.29600000003</v>
+        <f>SUBTOTAL(9,D37:D173)</f>
+        <v>242646.14999999997</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20652,7 +20652,7 @@
         <v>271</v>
       </c>
       <c r="C180" s="53">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20664,7 +20664,7 @@
         <v>245</v>
       </c>
       <c r="C181" s="53">
-        <v>159552</v>
+        <v>103490</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>409552</v>
+        <v>253490</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="302">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -758,9 +758,6 @@
   </si>
   <si>
     <t>G10</t>
-  </si>
-  <si>
-    <t>ADVANCE</t>
   </si>
   <si>
     <t>i66</t>
@@ -1934,7 +1931,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E177" sqref="E177"/>
+      <selection pane="bottomRight" activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1963,7 +1960,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="40" t="s">
@@ -1971,7 +1968,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44515</v>
+        <v>44517</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1994,7 +1991,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
@@ -2005,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2065,7 +2062,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
@@ -2076,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2143,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2214,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2345,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2476,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2547,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2689,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
@@ -2705,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2776,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2847,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2918,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2978,7 +2975,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2989,12 +2986,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3005,23 +3002,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" s="28">
-        <v>994.36</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>952.31</v>
+      </c>
+      <c r="C20" s="17">
+        <v>120</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114277.2</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3092,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3608,7 +3607,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="28">
         <v>1130.82</v>
@@ -3619,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3750,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3870,7 +3869,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -3881,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4012,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4143,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4920,7 +4919,7 @@
         <v>47152</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5051,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5171,7 +5170,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5182,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5573,7 +5572,7 @@
         <v>42671.4</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6271,7 +6270,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6282,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6402,7 +6401,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6413,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6533,7 +6532,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6544,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6664,7 +6663,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B51" s="28">
         <v>1066.6600000000001</v>
@@ -6675,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6806,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7197,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7317,7 +7316,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7328,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8224,7 +8223,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8235,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8813,7 +8812,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8824,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8946,7 +8945,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9008,7 +9007,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9136,7 +9135,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9147,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9211,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9645,7 +9644,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9656,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9776,7 +9775,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9787,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10240,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10293,7 +10292,7 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
@@ -10304,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10359,20 +10358,22 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>40</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52244.095999999998</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -11290,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11354,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11407,7 +11408,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
@@ -11418,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11538,7 +11539,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11549,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11669,7 +11670,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
@@ -11680,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11800,7 +11801,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11811,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11942,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12048,20 +12049,22 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12112,22 +12115,22 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A103" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>71329.2</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12235,7 +12238,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12246,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -13079,7 +13082,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13090,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -14195,7 +14198,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -14206,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -15053,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15560,7 +15563,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15571,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15833,7 +15836,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -18341,7 +18344,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18410,7 +18413,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18472,7 +18475,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18485,7 +18488,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18667,7 +18670,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18678,7 +18681,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18796,22 +18799,20 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>5</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>36211</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18931,7 +18932,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B163" s="28">
         <v>8101.24</v>
@@ -19060,7 +19061,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19189,7 +19190,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19200,7 +19201,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19320,7 +19321,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19331,7 +19332,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19451,7 +19452,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19462,7 +19463,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19582,7 +19583,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19593,7 +19594,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19713,7 +19714,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19844,7 +19845,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -19855,7 +19856,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19975,7 +19976,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19986,7 +19987,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20104,22 +20105,20 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17">
-        <v>5</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20239,7 +20238,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20250,7 +20249,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20374,12 +20373,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C37:C173)</f>
-        <v>140</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>290</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D37:D173)</f>
-        <v>242646.14999999997</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>328195.29599999997</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20649,10 +20648,10 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20661,21 +20660,21 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C181" s="53">
-        <v>103490</v>
+        <v>35956</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>253490</v>
+        <v>335956</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1931,7 +1931,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J177" sqref="J177"/>
+      <selection pane="bottomRight" activeCell="F182" sqref="F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44517</v>
+        <v>44521</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3005,19 +3005,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B20" s="28">
         <v>952.31</v>
       </c>
-      <c r="C20" s="17">
-        <v>120</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>114277.2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3867,17 +3865,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>100</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103045</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -4904,19 +4904,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>40</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>47152</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>251</v>
@@ -5037,17 +5035,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>242</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>46791.44</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5557,19 +5557,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>30</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>42671.4</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -10358,19 +10356,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>40</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52244.095999999998</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11537,17 +11533,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>60</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>84199.799999999988</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>251</v>
@@ -11668,17 +11666,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A99" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>140</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>171508.4</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12049,19 +12049,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12115,19 +12113,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>40</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -20373,12 +20369,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>290</v>
+        <f>SUBTOTAL(9,C28:C173)</f>
+        <v>340</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>328195.29599999997</v>
+        <f>SUBTOTAL(9,D28:D173)</f>
+        <v>405544.64</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20651,7 +20647,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20663,7 +20659,7 @@
         <v>270</v>
       </c>
       <c r="C181" s="53">
-        <v>35956</v>
+        <v>6846</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20674,7 +20670,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>335956</v>
+        <v>406846</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1931,7 +1931,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F182" sqref="F182"/>
+      <selection pane="bottomRight" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44521</v>
+        <v>44522</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3005,17 +3005,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B20" s="28">
         <v>952.31</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>60</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57138.6</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3873,11 +3875,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>103045</v>
+        <v>41218</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -10288,17 +10290,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76020.569999999992</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -11533,19 +11537,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>60</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>84199.799999999988</v>
+        <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>251</v>
@@ -11666,19 +11668,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>140</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>171508.4</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12049,17 +12049,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -13076,17 +13078,19 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17">
+        <v>20</v>
+      </c>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24862</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>251</v>
@@ -15557,17 +15561,19 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1">
       <c r="A132" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17">
+        <v>20</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>251</v>
@@ -18409,7 +18415,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18471,7 +18477,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18795,17 +18801,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>15</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>108633</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -20369,12 +20377,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C28:C173)</f>
-        <v>340</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>275</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D28:D173)</f>
-        <v>405544.64</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>403121.61</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20658,9 +20666,7 @@
       <c r="B181" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="C181" s="53">
-        <v>6846</v>
-      </c>
+      <c r="C181" s="53"/>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
@@ -20670,7 +20676,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>406846</v>
+        <v>400000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>B68_WHP_SKD</t>
+  </si>
+  <si>
+    <t>Advance</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H177" sqref="H177"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1968,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44522</v>
+        <v>44523</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3005,19 +3008,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B20" s="28">
         <v>952.31</v>
       </c>
-      <c r="C20" s="17">
-        <v>60</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>57138.6</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3875,11 +3876,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>41218</v>
+        <v>82436</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -4906,17 +4907,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>40</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47152</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>251</v>
@@ -5045,11 +5048,11 @@
         <v>1169.7860000000001</v>
       </c>
       <c r="C38" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>46791.44</v>
+        <v>23395.72</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5170,17 +5173,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>283</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>251</v>
@@ -5559,17 +5564,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -10298,11 +10305,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76020.569999999992</v>
+        <v>50680.38</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10360,17 +10367,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>70</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>91427.168000000005</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -12115,17 +12124,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>40</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -13078,19 +13089,17 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17">
-        <v>20</v>
-      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>24862</v>
+        <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>251</v>
@@ -14196,17 +14205,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A121" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -15561,19 +15572,17 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17">
-        <v>20</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>251</v>
@@ -18415,7 +18424,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18477,7 +18486,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18801,19 +18810,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>15</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>108633</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -20377,12 +20384,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>275</v>
+        <f>SUBTOTAL(9,C28:C173)</f>
+        <v>410</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>403121.61</v>
+        <f>SUBTOTAL(9,D28:D173)</f>
+        <v>503806.86800000002</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20664,9 +20671,11 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="C181" s="53"/>
+        <v>302</v>
+      </c>
+      <c r="C181" s="53">
+        <v>104821</v>
+      </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
     </row>
@@ -20676,7 +20685,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>400000</v>
+        <v>504821</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomRight" activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44523</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3008,17 +3008,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B20" s="28">
         <v>952.31</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>100</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95231</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3876,11 +3878,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>82436</v>
+        <v>103045</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -4915,11 +4917,11 @@
         <v>1178.8</v>
       </c>
       <c r="C37" s="17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>47152</v>
+        <v>58940</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>251</v>
@@ -5048,11 +5050,11 @@
         <v>1169.7860000000001</v>
       </c>
       <c r="C38" s="17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>23395.72</v>
+        <v>58489.3</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5173,19 +5175,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>283</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>251</v>
@@ -5564,19 +5564,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>40</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -10367,19 +10365,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>70</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>91427.168000000005</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11677,17 +11673,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>40</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49002.399999999994</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12058,19 +12056,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12124,7 +12120,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
@@ -12132,11 +12128,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>71329.2</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -14205,19 +14201,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -20384,12 +20378,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C28:C173)</f>
-        <v>410</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>440</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D28:D173)</f>
-        <v>503806.86800000002</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>486717.27999999997</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20674,7 +20668,7 @@
         <v>302</v>
       </c>
       <c r="C181" s="53">
-        <v>104821</v>
+        <v>91260</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20685,7 +20679,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>504821</v>
+        <v>491260</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K174" sqref="K174"/>
+      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44524</v>
+        <v>44525</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3008,19 +3008,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B20" s="28">
         <v>952.31</v>
       </c>
-      <c r="C20" s="17">
-        <v>100</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>95231</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3608,17 +3606,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>255</v>
       </c>
       <c r="B26" s="28">
-        <v>1130.82</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>1069.5899999999999</v>
+      </c>
+      <c r="C26" s="17">
+        <v>80</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85567.2</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>251</v>
@@ -3878,11 +3878,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>103045</v>
+        <v>61827</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -4917,11 +4917,11 @@
         <v>1178.8</v>
       </c>
       <c r="C37" s="17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>58940</v>
+        <v>23576</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>251</v>
@@ -5050,11 +5050,11 @@
         <v>1169.7860000000001</v>
       </c>
       <c r="C38" s="17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>58489.3</v>
+        <v>23395.72</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5564,17 +5564,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -10303,11 +10305,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>50680.38</v>
+        <v>63350.474999999991</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -11673,19 +11675,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>40</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>49002.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12056,17 +12056,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12120,7 +12122,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
@@ -12128,11 +12130,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>71329.2</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -12241,17 +12243,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A104" s="43" t="s">
         <v>298</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>100</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>120485.99999999999</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>251</v>
@@ -20378,12 +20382,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>440</v>
+        <f>SUBTOTAL(9,C26:C173)</f>
+        <v>430</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>486717.27999999997</v>
+        <f>SUBTOTAL(9,D26:D173)</f>
+        <v>502798.39499999996</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20656,7 +20660,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20668,7 +20672,7 @@
         <v>302</v>
       </c>
       <c r="C181" s="53">
-        <v>91260</v>
+        <v>2787</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20679,7 +20683,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>491260</v>
+        <v>502787</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1934,7 +1934,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I102" sqref="I102"/>
+      <selection pane="bottomRight" activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44525</v>
+        <v>44529</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3079,17 +3079,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B21" s="28">
-        <v>1120.8</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>1069.5899999999999</v>
+      </c>
+      <c r="C21" s="17">
+        <v>240</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>256701.59999999998</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>251</v>
@@ -3606,19 +3608,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>255</v>
       </c>
       <c r="B26" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C26" s="17">
-        <v>80</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>85567.2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>251</v>
@@ -3870,19 +3870,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>60</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>61827</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -4909,19 +4907,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>20</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>23576</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>251</v>
@@ -5042,19 +5038,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>242</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>20</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>23395.72</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5564,19 +5558,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -6668,17 +6660,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="43" t="s">
         <v>257</v>
       </c>
       <c r="B51" s="28">
-        <v>1066.6600000000001</v>
-      </c>
-      <c r="C51" s="17"/>
+        <v>1107.68</v>
+      </c>
+      <c r="C51" s="17">
+        <v>200</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>221536</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>251</v>
@@ -10297,19 +10291,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>50</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>63350.474999999991</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -12056,19 +12048,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>48595.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12122,19 +12112,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>40</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -12243,19 +12231,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>298</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>100</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>120485.99999999999</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>251</v>
@@ -18422,7 +18408,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18484,7 +18470,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18808,17 +18794,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>30</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>217266</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -20114,7 +20102,7 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>276</v>
       </c>
@@ -20382,12 +20370,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C26:C173)</f>
-        <v>430</v>
+        <f>SUBTOTAL(9,C21:C173)</f>
+        <v>470</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D26:D173)</f>
-        <v>502798.39499999996</v>
+        <f>SUBTOTAL(9,D21:D173)</f>
+        <v>695503.6</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20660,7 +20648,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20672,7 +20660,7 @@
         <v>302</v>
       </c>
       <c r="C181" s="53">
-        <v>2787</v>
+        <v>0</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20683,7 +20671,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>502787</v>
+        <v>700000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Daily Final Requisition" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$173</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -932,6 +933,12 @@
   </si>
   <si>
     <t>Advance</t>
+  </si>
+  <si>
+    <t>fgdhfg</t>
+  </si>
+  <si>
+    <t>dfshgj</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1941,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A179" sqref="A179"/>
+      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1978,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44529</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1992,17 +1999,19 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>30</v>
+      </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>0</v>
+        <v>217326.3</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>251</v>
@@ -3008,17 +3017,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B20" s="28">
         <v>952.31</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>200</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190462</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3087,11 +3098,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>256701.59999999998</v>
+        <v>213917.99999999997</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>251</v>
@@ -3870,17 +3881,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>300</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>309135</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -4907,17 +4920,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>60</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70728</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>251</v>
@@ -5038,17 +5053,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>242</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>60</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>70187.16</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5558,17 +5575,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -6660,19 +6679,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
         <v>257</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>200</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>221536</v>
+        <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>251</v>
@@ -10359,17 +10376,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>60</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78366.144</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11667,17 +11686,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>200</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>245012</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12048,17 +12069,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -13075,17 +13098,19 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17">
+        <v>20</v>
+      </c>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24862</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>251</v>
@@ -18794,7 +18819,7 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
@@ -18802,11 +18827,11 @@
         <v>7242.2</v>
       </c>
       <c r="C162" s="17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>217266</v>
+        <v>72422</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -19840,17 +19865,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>7</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>63395.57</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -19971,17 +19998,19 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17">
+        <v>10</v>
+      </c>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>0</v>
+        <v>99736.900000000009</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>251</v>
@@ -20102,17 +20131,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>276</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>12</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>108678.12</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>290</v>
@@ -20370,12 +20401,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C21:C173)</f>
-        <v>470</v>
+        <f>SUBTOTAL(9,C5:C173)</f>
+        <v>1269</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D21:D173)</f>
-        <v>695503.6</v>
+        <f>SUBTOTAL(9,D5:D173)</f>
+        <v>1898167.594</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20648,7 +20679,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>700000</v>
+        <v>900000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20671,7 +20702,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>700000</v>
+        <v>900000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20711,6 +20742,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="N11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV101"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1941,7 +1941,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomRight" activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44530</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -1999,19 +1999,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17">
-        <v>30</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>217326.3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>251</v>
@@ -3017,19 +3015,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B20" s="28">
         <v>952.31</v>
       </c>
-      <c r="C20" s="17">
-        <v>200</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>190462</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3090,7 +3086,7 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="42" t="s">
         <v>241</v>
       </c>
@@ -3098,11 +3094,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>213917.99999999997</v>
+        <v>42783.6</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>251</v>
@@ -3881,19 +3877,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>286</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>300</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>309135</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -4920,19 +4914,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>211</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>60</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>70728</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>251</v>
@@ -5053,19 +5045,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>242</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>60</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>70187.16</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5575,19 +5565,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -9215,7 +9203,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="42" t="s">
         <v>230</v>
       </c>
@@ -9279,7 +9267,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9343,7 +9331,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9405,7 +9393,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9467,7 +9455,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -10376,19 +10364,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>60</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78366.144</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11296,7 +11282,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>227</v>
       </c>
@@ -11360,7 +11346,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -11686,19 +11672,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>300</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>200</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>245012</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12069,19 +12053,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>48595.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -13098,19 +13080,17 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17">
-        <v>20</v>
-      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>24862</v>
+        <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>251</v>
@@ -18433,7 +18413,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18495,7 +18475,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18819,19 +18799,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>10</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -19865,19 +19843,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>7</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>63395.57</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -19998,19 +19974,17 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17">
-        <v>10</v>
-      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>99736.900000000009</v>
+        <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>251</v>
@@ -20131,19 +20105,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>276</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17">
-        <v>12</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>108678.12</v>
+        <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>290</v>
@@ -20402,11 +20374,11 @@
       <c r="B174" s="70"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>1269</v>
+        <v>40</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>1898167.594</v>
+        <v>42783.6</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20679,7 +20651,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>900000</v>
+        <v>240000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20702,7 +20674,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>900000</v>
+        <v>240000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1941,7 +1941,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E184" sqref="E184"/>
+      <selection pane="bottomRight" activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44532</v>
+        <v>44536</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3086,7 +3086,7 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>241</v>
       </c>
@@ -3094,11 +3094,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>42783.6</v>
+        <v>534795</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>251</v>
@@ -9203,7 +9203,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
         <v>230</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9331,7 +9331,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9455,7 +9455,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -11282,7 +11282,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
         <v>227</v>
       </c>
@@ -11346,7 +11346,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -11541,17 +11541,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>140</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>196466.19999999998</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>251</v>
@@ -13080,17 +13082,19 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17">
+        <v>20</v>
+      </c>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24862</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>251</v>
@@ -15561,17 +15565,19 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A132" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17">
+        <v>20</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>251</v>
@@ -20105,7 +20111,7 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
         <v>276</v>
       </c>
@@ -20373,12 +20379,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C5:C173)</f>
-        <v>40</v>
+        <f>SUBTOTAL(9,C21:C173)</f>
+        <v>680</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D5:D173)</f>
-        <v>42783.6</v>
+        <f>SUBTOTAL(9,D21:D173)</f>
+        <v>780283.39999999991</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20651,7 +20657,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>240000</v>
+        <v>800000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20674,7 +20680,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>240000</v>
+        <v>800000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1941,7 +1941,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J178" sqref="J178"/>
+      <selection pane="bottomRight" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44536</v>
+        <v>44537</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3094,11 +3094,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>534795</v>
+        <v>106958.99999999999</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>251</v>
@@ -5565,17 +5565,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -11410,17 +11412,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>260</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>50</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>68212.025000000009</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>251</v>
@@ -11541,19 +11545,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>140</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>196466.19999999998</v>
+        <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>251</v>
@@ -13082,19 +13084,17 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17">
-        <v>20</v>
-      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>24862</v>
+        <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>251</v>
@@ -14200,17 +14200,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A121" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -15565,19 +15567,17 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
         <v>259</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17">
-        <v>20</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>251</v>
@@ -20380,11 +20380,11 @@
       <c r="B174" s="70"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C21:C173)</f>
-        <v>680</v>
+        <v>250</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D21:D173)</f>
-        <v>780283.39999999991</v>
+        <v>316125.82500000001</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20657,7 +20657,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1941,7 +1941,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I121" sqref="I121"/>
+      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44537</v>
+        <v>44538</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2070,17 +2070,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>50</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>352838</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>251</v>
@@ -3086,19 +3088,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>106958.99999999999</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>251</v>
@@ -5565,19 +5565,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>292</v>
@@ -9205,7 +9203,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="42" t="s">
         <v>230</v>
       </c>
@@ -9269,7 +9267,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9333,7 +9331,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9395,7 +9393,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9457,7 +9455,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -11284,7 +11282,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>227</v>
       </c>
@@ -11348,7 +11346,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -11412,19 +11410,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>260</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>50</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>68212.025000000009</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>251</v>
@@ -14200,19 +14196,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -20380,11 +20374,11 @@
       <c r="B174" s="70"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C21:C173)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D21:D173)</f>
-        <v>316125.82500000001</v>
+        <v>0</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20657,7 +20651,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20680,7 +20674,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1400,7 +1400,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,6 +1613,7 @@
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1941,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E185" sqref="E185"/>
+      <selection pane="bottomRight" activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1978,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44538</v>
+        <v>44539</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2070,19 +2071,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>50</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>352838</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>251</v>
@@ -9203,7 +9202,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
         <v>230</v>
       </c>
@@ -9267,7 +9266,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9331,7 +9330,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9393,7 +9392,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9455,7 +9454,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -11282,7 +11281,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
         <v>227</v>
       </c>
@@ -11346,7 +11345,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -18413,7 +18412,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18475,7 +18474,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -18799,17 +18798,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>5</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>36211</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -19843,17 +19844,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>10</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>90565.1</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -19974,17 +19977,19 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17">
+        <v>3</v>
+      </c>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>0</v>
+        <v>29921.07</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>251</v>
@@ -20105,17 +20110,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>276</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>5</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>290</v>
@@ -20373,12 +20380,12 @@
       </c>
       <c r="B174" s="70"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C21:C173)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,C162:C173)</f>
+        <v>23</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D21:D173)</f>
-        <v>0</v>
+        <v>201979.72000000003</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20624,6 +20631,7 @@
       <c r="C176" s="61"/>
       <c r="D176" s="61"/>
       <c r="E176" s="61"/>
+      <c r="I176" s="76"/>
     </row>
     <row r="177" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="B177" s="66" t="s">
@@ -20651,7 +20659,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20674,7 +20682,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -839,9 +839,6 @@
     <t>City Bank</t>
   </si>
   <si>
-    <t>Z20</t>
-  </si>
-  <si>
     <t>Z25</t>
   </si>
   <si>
@@ -939,6 +936,9 @@
   </si>
   <si>
     <t>dfshgj</t>
+  </si>
+  <si>
+    <t>Z22</t>
   </si>
 </sst>
 </file>
@@ -1568,6 +1568,7 @@
     <xf numFmtId="43" fontId="22" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1613,7 +1614,6 @@
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I187" sqref="I187"/>
+      <selection pane="bottomRight" activeCell="L180" sqref="L180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1958,28 +1958,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="40" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44539</v>
+        <v>44542</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2071,17 +2071,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>251</v>
@@ -3002,7 +3004,7 @@
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3018,7 +3020,7 @@
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="28">
         <v>952.31</v>
@@ -3878,7 +3880,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -5177,7 +5179,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5564,20 +5566,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>30</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42671.4</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6406,7 +6410,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6537,7 +6541,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6666,17 +6670,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="43" t="s">
         <v>257</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>60</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66460.800000000003</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>251</v>
@@ -7321,7 +7327,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7332,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8817,7 +8823,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -9140,7 +9146,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -10295,17 +10301,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10363,17 +10371,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>40</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52244.095999999998</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11673,7 +11683,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
@@ -11804,7 +11814,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12054,7 +12064,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12237,7 +12247,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -14195,17 +14205,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -18798,19 +18810,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>5</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>36211</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -18933,10 +18943,10 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B163" s="28">
-        <v>8101.24</v>
+        <v>7488.13</v>
       </c>
       <c r="C163" s="17"/>
       <c r="D163" s="18">
@@ -19062,7 +19072,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19191,7 +19201,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19202,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19322,7 +19332,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19333,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19464,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19584,7 +19594,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19715,7 +19725,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19846,17 +19856,17 @@
     </row>
     <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
       <c r="C170" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>90565.1</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -19979,17 +19989,17 @@
     </row>
     <row r="171" spans="1:120" ht="15" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
       <c r="C171" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>29921.07</v>
+        <v>49868.450000000004</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>251</v>
@@ -20112,20 +20122,20 @@
     </row>
     <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
       <c r="C172" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>54339.06</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20245,7 +20255,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20375,17 +20385,17 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A174" s="69" t="s">
+      <c r="A174" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B174" s="70"/>
+      <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C162:C173)</f>
-        <v>23</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>206</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D21:D173)</f>
-        <v>201979.72000000003</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>505147.74600000004</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20627,18 +20637,18 @@
       <c r="DP175" s="15"/>
     </row>
     <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B176" s="61"/>
-      <c r="C176" s="61"/>
-      <c r="D176" s="61"/>
-      <c r="E176" s="61"/>
-      <c r="I176" s="76"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="62"/>
+      <c r="D176" s="62"/>
+      <c r="E176" s="62"/>
+      <c r="I176" s="61"/>
     </row>
     <row r="177" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B177" s="66" t="s">
+      <c r="B177" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C177" s="67"/>
-      <c r="D177" s="68"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="69"/>
       <c r="E177" s="24"/>
     </row>
     <row r="178" spans="2:5" ht="9" customHeight="1" thickBot="1"/>
@@ -20659,7 +20669,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20668,7 +20678,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C181" s="53">
         <v>0</v>
@@ -20678,11 +20688,11 @@
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20732,12 +20742,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="N11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -20762,33 +20772,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75" t="e">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="75"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22729,10 +22739,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="71"/>
+      <c r="B101" s="72"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L180" sqref="L180"/>
+      <selection pane="bottomRight" activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44542</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2071,19 +2071,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>20</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>141135.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>251</v>
@@ -5566,19 +5564,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>30</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>42671.4</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>291</v>
@@ -6670,19 +6666,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
         <v>257</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>60</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>66460.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>251</v>
@@ -7325,17 +7319,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>283</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="48">
+        <v>20</v>
+      </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>94123.6</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>298</v>
@@ -10301,19 +10297,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>20</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10371,19 +10365,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>40</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52244.095999999998</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -14205,19 +14197,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>294</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -18941,19 +18931,23 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A163" s="42" t="s">
         <v>304</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>100</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E163" s="18"/>
+        <v>748813</v>
+      </c>
+      <c r="E163" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
       <c r="H163" s="26"/>
@@ -19854,19 +19848,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -19987,19 +19979,17 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17">
-        <v>5</v>
-      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>49868.450000000004</v>
+        <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>251</v>
@@ -20120,19 +20110,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
         <v>275</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17">
-        <v>6</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>54339.06</v>
+        <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>289</v>
@@ -20391,11 +20379,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C6:C173)</f>
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D6:D173)</f>
-        <v>505147.74600000004</v>
+        <v>842936.6</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20669,7 +20657,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>500000</v>
+        <v>850000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20692,7 +20680,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>500000</v>
+        <v>850000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$174</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1939,10 +1939,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G183" sqref="G183"/>
+      <selection pane="bottomRight" activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44543</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3614,17 +3614,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>255</v>
       </c>
       <c r="B26" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42783.6</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>251</v>
@@ -3876,17 +3878,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>100</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103045</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -5564,17 +5568,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>291</v>
@@ -7327,11 +7333,11 @@
         <v>4706.18</v>
       </c>
       <c r="C56" s="48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>94123.6</v>
+        <v>47061.8</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>298</v>
@@ -10297,17 +10303,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76020.569999999992</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10365,17 +10373,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>60</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78366.144</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11411,17 +11421,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>260</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>40</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54569.62</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>251</v>
@@ -11542,17 +11554,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>40</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>56133.2</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>251</v>
@@ -12054,17 +12068,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12118,17 +12134,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>40</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -13081,17 +13099,19 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17">
+        <v>20</v>
+      </c>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24862</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>251</v>
@@ -14197,17 +14217,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>294</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -18800,17 +18822,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>12</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>86906.4</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -18931,19 +18955,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
         <v>304</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>100</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>748813</v>
+        <v>0</v>
       </c>
       <c r="E163" s="18" t="s">
         <v>251</v>
@@ -19848,17 +19870,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -19979,17 +20003,19 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17">
+        <v>10</v>
+      </c>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>0</v>
+        <v>99736.900000000009</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>251</v>
@@ -20110,17 +20136,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="42" t="s">
         <v>275</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>5</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>289</v>
@@ -20378,12 +20406,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>120</v>
+        <f>SUM(C5:C173)</f>
+        <v>582</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>842936.6</v>
+        <f>SUM(D5:D173)</f>
+        <v>997153.5340000001</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20657,7 +20685,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>850000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20680,7 +20708,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>850000</v>
+        <v>300000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20688,7 +20716,7 @@
     <row r="183" spans="2:5" ht="15" customHeight="1"/>
     <row r="184" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E173">
+  <autoFilter ref="A4:E174">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$173</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1939,10 +1939,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G181" sqref="G181"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44545</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3622,11 +3622,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C26" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>42783.6</v>
+        <v>64175.399999999994</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>251</v>
@@ -3886,11 +3886,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>103045</v>
+        <v>61827</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -5179,17 +5179,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>251</v>
@@ -5568,19 +5570,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>291</v>
@@ -7325,19 +7325,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>283</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48">
-        <v>10</v>
-      </c>
+      <c r="C56" s="48"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>47061.8</v>
+        <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>298</v>
@@ -10311,11 +10309,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76020.569999999992</v>
+        <v>50680.38</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10381,11 +10379,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78366.144</v>
+        <v>52244.095999999998</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11421,19 +11419,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>260</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>40</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54569.62</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>251</v>
@@ -11554,19 +11550,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>40</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>56133.2</v>
+        <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>251</v>
@@ -12068,19 +12062,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>48595.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12134,19 +12126,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>40</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -13099,19 +13089,17 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17">
-        <v>20</v>
-      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>24862</v>
+        <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
         <v>251</v>
@@ -14225,11 +14213,11 @@
         <v>1390.3</v>
       </c>
       <c r="C121" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -18822,19 +18810,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>12</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>86906.4</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -20003,19 +19989,17 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
       </c>
-      <c r="C171" s="17">
-        <v>10</v>
-      </c>
+      <c r="C171" s="17"/>
       <c r="D171" s="18">
         <f t="shared" ref="D171" si="8">B171*C171</f>
-        <v>99736.900000000009</v>
+        <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>251</v>
@@ -20406,12 +20390,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUM(C5:C173)</f>
-        <v>582</v>
+        <f>SUBTOTAL(9,C26:C173)</f>
+        <v>250</v>
       </c>
       <c r="D174" s="59">
-        <f>SUM(D5:D173)</f>
-        <v>997153.5340000001</v>
+        <f>SUBTOTAL(9,D26:D173)</f>
+        <v>371655.77599999995</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20685,7 +20669,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20697,7 +20681,7 @@
         <v>301</v>
       </c>
       <c r="C181" s="53">
-        <v>0</v>
+        <v>17185</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20708,7 +20692,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>300000</v>
+        <v>367185</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20716,7 +20700,7 @@
     <row r="183" spans="2:5" ht="15" customHeight="1"/>
     <row r="184" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E174">
+  <autoFilter ref="A4:E173">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44550</v>
+        <v>44551</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3016,17 +3016,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B20" s="28">
-        <v>952.31</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>922.2</v>
+      </c>
+      <c r="C20" s="17">
+        <v>400</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>368880</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3614,19 +3616,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>255</v>
       </c>
       <c r="B26" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C26" s="17">
-        <v>60</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>64175.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>251</v>
@@ -3878,7 +3878,7 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="42" t="s">
         <v>285</v>
       </c>
@@ -3886,11 +3886,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>61827</v>
+        <v>103045</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -5179,19 +5179,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>251</v>
@@ -9208,7 +9206,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="42" t="s">
         <v>230</v>
       </c>
@@ -9272,7 +9270,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9336,7 +9334,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9398,7 +9396,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9460,7 +9458,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -10301,19 +10299,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>40</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>50680.38</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10371,19 +10367,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>40</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52244.095999999998</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11291,7 +11285,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>227</v>
       </c>
@@ -11355,7 +11349,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -14205,19 +14199,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>294</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -18424,7 +18416,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18486,7 +18478,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -19856,19 +19848,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -20120,19 +20110,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
         <v>275</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C172" s="17">
-        <v>5</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
         <v>289</v>
@@ -20390,12 +20378,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C26:C173)</f>
-        <v>250</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>500</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D26:D173)</f>
-        <v>371655.77599999995</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>471925</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20669,7 +20657,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20681,7 +20669,7 @@
         <v>301</v>
       </c>
       <c r="C181" s="53">
-        <v>17185</v>
+        <v>0</v>
       </c>
       <c r="D181" s="54"/>
       <c r="E181" s="22"/>
@@ -20692,7 +20680,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>367185</v>
+        <v>500000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
+      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44551</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3016,19 +3016,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>400</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>368880</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3616,17 +3614,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>255</v>
       </c>
       <c r="B26" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42783.6</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>251</v>
@@ -3878,19 +3878,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>100</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>103045</v>
+        <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>251</v>
@@ -5568,17 +5566,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>291</v>
@@ -7323,17 +7323,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>283</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="48">
+        <v>10</v>
+      </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47061.8</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>298</v>
@@ -9142,17 +9144,19 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="17">
+        <v>40</v>
+      </c>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>252800.40000000002</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>251</v>
@@ -9206,7 +9210,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
         <v>230</v>
       </c>
@@ -9270,7 +9274,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9334,7 +9338,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9396,7 +9400,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9458,7 +9462,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -10299,17 +10303,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76020.569999999992</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10367,17 +10373,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>60</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78366.144</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11285,7 +11293,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
         <v>227</v>
       </c>
@@ -11349,7 +11357,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -11413,17 +11421,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>260</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>60</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>81854.430000000008</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>251</v>
@@ -11544,17 +11554,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>60</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>84199.799999999988</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>251</v>
@@ -11675,17 +11687,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>299</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>60</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>73503.599999999991</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12056,17 +12070,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>284</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12120,17 +12136,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>40</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -12239,17 +12257,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>297</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>40</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>48194.399999999994</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>251</v>
@@ -14199,17 +14219,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A121" s="42" t="s">
         <v>294</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -20378,12 +20400,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>500</v>
+        <f>SUBTOTAL(9,C26:C173)</f>
+        <v>590</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>471925</v>
+        <f>SUBTOTAL(9,D26:D173)</f>
+        <v>997590.14400000009</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20657,7 +20679,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20680,7 +20702,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomRight" activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1950,7 +1950,7 @@
     <col min="1" max="1" width="22" style="41" customWidth="1"/>
     <col min="2" max="2" width="15" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="108" width="9.140625" style="25" customWidth="1"/>
     <col min="109" max="120" width="9.140625" style="14" customWidth="1"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44553</v>
+        <v>44557</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2000,17 +2000,19 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>262</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>20</v>
+      </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>0</v>
+        <v>144884.20000000001</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>251</v>
@@ -3016,17 +3018,19 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>281</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>500</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>461100</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -5046,17 +5050,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>242</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>116978.6</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5177,17 +5183,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>40</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>48715.600000000006</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>251</v>
@@ -5574,11 +5582,11 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>291</v>
@@ -7331,11 +7339,11 @@
         <v>4706.18</v>
       </c>
       <c r="C56" s="48">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>47061.8</v>
+        <v>141185.40000000002</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>298</v>
@@ -9144,19 +9152,17 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17">
-        <v>40</v>
-      </c>
+      <c r="C73" s="17"/>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>252800.40000000002</v>
+        <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>251</v>
@@ -10311,11 +10317,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76020.569999999992</v>
+        <v>126700.94999999998</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10381,11 +10387,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78366.144</v>
+        <v>130610.24000000001</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11554,19 +11560,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>264</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>60</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>84199.799999999988</v>
+        <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>251</v>
@@ -11695,11 +11699,11 @@
         <v>1225.06</v>
       </c>
       <c r="C99" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>73503.599999999991</v>
+        <v>49002.399999999994</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12078,11 +12082,11 @@
         <v>1214.8900000000001</v>
       </c>
       <c r="C102" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12144,11 +12148,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>71329.2</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -12265,11 +12269,11 @@
         <v>1204.8599999999999</v>
       </c>
       <c r="C104" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>48194.399999999994</v>
+        <v>72291.599999999991</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>251</v>
@@ -14219,7 +14223,7 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>294</v>
       </c>
@@ -18438,7 +18442,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18500,7 +18504,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>232</v>
       </c>
@@ -19870,17 +19874,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>20</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>181130.2</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -20001,7 +20007,7 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="42" t="s">
         <v>280</v>
       </c>
@@ -20400,12 +20406,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C26:C173)</f>
-        <v>590</v>
+        <f>SUBTOTAL(9,C5:C173)</f>
+        <v>1290</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D26:D173)</f>
-        <v>997590.14400000009</v>
+        <f>SUBTOTAL(9,D5:D173)</f>
+        <v>1829669.2199999997</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20679,7 +20685,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>300000</v>
+        <v>2100000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20702,7 +20708,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>300000</v>
+        <v>2100000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M104" sqref="M104"/>
+      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44557</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2007,12 +2007,10 @@
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17">
-        <v>20</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>144884.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>251</v>
@@ -3025,12 +3023,10 @@
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>500</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>461100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>251</v>
@@ -3625,12 +3621,10 @@
       <c r="B26" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C26" s="17">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>42783.6</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>251</v>
@@ -5057,12 +5051,10 @@
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116978.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>251</v>
@@ -5190,12 +5182,10 @@
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>40</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>48715.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>251</v>
@@ -5581,12 +5571,10 @@
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>40</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>291</v>
@@ -7338,12 +7326,10 @@
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48">
-        <v>30</v>
-      </c>
+      <c r="C56" s="48"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>141185.40000000002</v>
+        <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>298</v>
@@ -10316,12 +10302,10 @@
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>100</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>126700.94999999998</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>251</v>
@@ -10386,12 +10370,10 @@
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>100</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>130610.24000000001</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>251</v>
@@ -11434,12 +11416,10 @@
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>60</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>81854.430000000008</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>251</v>
@@ -11698,12 +11678,10 @@
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>40</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>49002.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>251</v>
@@ -12081,12 +12059,10 @@
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>48595.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>251</v>
@@ -12147,12 +12123,10 @@
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>60</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>71329.2</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>251</v>
@@ -12268,12 +12242,10 @@
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>60</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>72291.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>251</v>
@@ -14230,12 +14202,10 @@
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>251</v>
@@ -19881,12 +19851,10 @@
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>20</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>181130.2</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>251</v>
@@ -20407,11 +20375,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>1290</v>
+        <v>0</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>1829669.2199999997</v>
+        <v>0</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomRight" activeCell="J182" sqref="J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44558</v>
+        <v>44559</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2007,10 +2007,12 @@
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>10</v>
+      </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>0</v>
+        <v>72442.100000000006</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>251</v>
@@ -3016,7 +3018,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>281</v>
       </c>
@@ -3087,17 +3089,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>300</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>320877</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>251</v>
@@ -3614,7 +3618,7 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>255</v>
       </c>
@@ -5044,7 +5048,7 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>242</v>
       </c>
@@ -5175,7 +5179,7 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>282</v>
       </c>
@@ -5564,7 +5568,7 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
@@ -7326,10 +7330,12 @@
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="48">
+        <v>10</v>
+      </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47061.8</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>298</v>
@@ -9138,17 +9144,19 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="42" t="s">
         <v>295</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="17">
+        <v>10</v>
+      </c>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>63200.100000000006</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>251</v>
@@ -10295,7 +10303,7 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>256</v>
       </c>
@@ -10363,7 +10371,7 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>266</v>
       </c>
@@ -11409,7 +11417,7 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>260</v>
       </c>
@@ -11671,7 +11679,7 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>299</v>
       </c>
@@ -12052,7 +12060,7 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>284</v>
       </c>
@@ -12116,7 +12124,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>267</v>
       </c>
@@ -12235,7 +12243,7 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>297</v>
       </c>
@@ -14195,7 +14203,7 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
         <v>294</v>
       </c>
@@ -18798,17 +18806,19 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A162" s="42" t="s">
         <v>268</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17"/>
+      <c r="C162" s="17">
+        <v>20</v>
+      </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>144844</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>251</v>
@@ -19844,7 +19854,7 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
         <v>279</v>
       </c>
@@ -19975,7 +19985,7 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
         <v>280</v>
       </c>
@@ -20375,11 +20385,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>0</v>
+        <v>648425</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20653,7 +20663,7 @@
         <v>270</v>
       </c>
       <c r="C180" s="53">
-        <v>2100000</v>
+        <v>650000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20676,7 +20686,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>2100000</v>
+        <v>650000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -650,9 +650,6 @@
     <t>Black &amp; Black_Red</t>
   </si>
   <si>
-    <t>B60</t>
-  </si>
-  <si>
     <t>B12+</t>
   </si>
   <si>
@@ -939,6 +936,9 @@
   </si>
   <si>
     <t>Z22</t>
+  </si>
+  <si>
+    <t>B62</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J182" sqref="J182"/>
+      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="40" t="s">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44559</v>
+        <v>44560</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2002,20 +2002,20 @@
     </row>
     <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
       <c r="C5" s="17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>72442.100000000006</v>
+        <v>108663.15</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2073,20 +2073,22 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>60</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>423405.60000000003</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2142,7 +2144,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2153,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2224,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2355,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2486,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2557,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2628,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2688,7 +2690,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
@@ -2699,12 +2701,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2715,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2773,20 +2775,22 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="B15" s="28">
-        <v>779.95</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>932.26</v>
+      </c>
+      <c r="C15" s="17">
+        <v>300</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>279678</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2846,7 +2850,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -2857,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2917,7 +2921,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -2928,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2988,7 +2992,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2999,12 +3003,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3015,23 +3019,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>160</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147552</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3091,20 +3097,20 @@
     </row>
     <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>320877</v>
+        <v>53479.499999999993</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3171,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3620,7 +3626,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B26" s="28">
         <v>1069.5899999999999</v>
@@ -3631,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3751,7 +3757,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3762,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3882,7 +3888,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -3893,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4024,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4155,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4275,7 +4281,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4788,7 +4794,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4919,7 +4925,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
@@ -4930,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5048,20 +5054,22 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>116978.6</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5181,7 +5189,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5192,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5568,20 +5576,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5959,7 +5969,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6217,7 +6227,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6279,7 +6289,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6290,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6410,7 +6420,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6421,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6541,7 +6551,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6552,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6672,7 +6682,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6683,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6803,7 +6813,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6814,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7063,7 +7073,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7074,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7194,7 +7204,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7205,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7325,7 +7335,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7338,7 +7348,7 @@
         <v>47061.8</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8234,7 +8244,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8245,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8752,7 +8762,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8763,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8823,7 +8833,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -8834,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8956,7 +8966,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9018,7 +9028,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9082,7 +9092,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9144,22 +9154,20 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17">
-        <v>10</v>
-      </c>
+      <c r="C73" s="17"/>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>63200.100000000006</v>
+        <v>0</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9212,7 +9220,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9223,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9526,7 +9534,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9657,7 +9665,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9668,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9788,7 +9796,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9799,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10241,7 +10249,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10252,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10305,7 +10313,7 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
@@ -10316,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10373,7 +10381,7 @@
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
@@ -10384,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -11291,7 +11299,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11302,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11366,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11417,20 +11425,22 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>40</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54569.62</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11548,20 +11558,22 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>40</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>56133.2</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11679,20 +11691,22 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>100</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>122506</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11812,7 +11826,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11823,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11943,7 +11957,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -11954,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12062,7 +12076,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12073,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12124,20 +12138,22 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12243,20 +12259,22 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>40</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>48194.399999999994</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -13089,7 +13107,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13100,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13567,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -14203,20 +14221,22 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14336,7 +14356,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14932,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15063,7 +15083,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15183,7 +15203,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15570,7 +15590,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15581,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15701,7 +15721,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15712,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15832,7 +15852,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15843,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16918,7 +16938,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17320,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17580,7 +17600,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -18220,7 +18240,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18351,7 +18371,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18484,7 +18504,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18495,7 +18515,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18677,7 +18697,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18688,7 +18708,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18806,22 +18826,22 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
       <c r="C162" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>144844</v>
+        <v>72422</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18939,20 +18959,22 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>20</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>149762.6</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19072,7 +19094,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19201,7 +19223,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19212,7 +19234,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19332,7 +19354,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19343,7 +19365,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19463,7 +19485,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19474,7 +19496,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19594,7 +19616,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19605,7 +19627,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19725,7 +19747,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19854,20 +19876,22 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>20</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>181130.2</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19987,7 +20011,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19998,7 +20022,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20118,7 +20142,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20129,7 +20153,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20249,7 +20273,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20260,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20385,11 +20409,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>350</v>
+        <v>1065</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>648425</v>
+        <v>1998461.87</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20660,11 +20684,9 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="C180" s="53">
-        <v>650000</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C180" s="53"/>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>133</v>
@@ -20672,7 +20694,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C181" s="53">
         <v>0</v>
@@ -20682,11 +20704,11 @@
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>650000</v>
+        <v>0</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20736,12 +20758,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="N11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
